--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sncsr\eclipse-workspace\ProvidenceSMS_Selenium_Framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E44F41-495A-454C-A8F3-8669886DE2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC265CF-F119-475C-AB98-1A13BBED8110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6492B4B-4497-484C-9067-5A512381FFD5}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>End Time</t>
   </si>
   <si>
@@ -260,44 +257,49 @@
     <t>Wednesday</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Term 1</t>
   </si>
   <si>
+    <t>Class A</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>Anu4</t>
+  </si>
+  <si>
+    <t>anu4@gmail.com</t>
+  </si>
+  <si>
+    <t>Anwi4</t>
+  </si>
+  <si>
+    <t>anwi4@gmail.com</t>
+  </si>
+  <si>
+    <t>BaseBall</t>
+  </si>
+  <si>
+    <t>30.50</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>1:00</t>
+  </si>
+  <si>
+    <t>Grade 3</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>Class A</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>Anu4</t>
-  </si>
-  <si>
-    <t>anu4@gmail.com</t>
-  </si>
-  <si>
-    <t>Anwi4</t>
-  </si>
-  <si>
-    <t>anwi4@gmail.com</t>
-  </si>
-  <si>
-    <t>BaseBall</t>
-  </si>
-  <si>
-    <t>30.50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -831,17 +833,17 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.109375"/>
-    <col min="2" max="2" customWidth="true" style="1" width="37.88671875"/>
-    <col min="3" max="3" customWidth="true" style="1" width="29.21875"/>
-    <col min="4" max="4" customWidth="true" style="1" width="28.33203125"/>
-    <col min="5" max="5" customWidth="true" style="1" width="16.88671875"/>
-    <col min="6" max="16384" style="1" width="8.88671875"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -875,12 +877,12 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -891,7 +893,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -902,7 +904,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -913,7 +915,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -924,7 +926,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -935,7 +937,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -946,7 +948,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -957,13 +959,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -994,46 +996,46 @@
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1067,12 +1069,12 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>31</v>
@@ -1083,13 +1085,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1120,90 +1122,90 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1225,49 +1227,49 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
@@ -1275,87 +1277,87 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>13</v>
@@ -1363,85 +1365,85 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
